--- a/Team-Data/2012-13/4-16-2012-13.xlsx
+++ b/Team-Data/2012-13/4-16-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
         <v>44</v>
       </c>
       <c r="F2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="n">
-        <v>0.543</v>
+        <v>0.55</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J2" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L2" t="n">
         <v>8.699999999999999</v>
@@ -696,22 +763,22 @@
         <v>23.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O2" t="n">
         <v>14.1</v>
       </c>
       <c r="P2" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.713</v>
+        <v>0.712</v>
       </c>
       <c r="R2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="S2" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T2" t="n">
         <v>40.7</v>
@@ -726,31 +793,31 @@
         <v>8.1</v>
       </c>
       <c r="X2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z2" t="n">
         <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -762,10 +829,10 @@
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="n">
         <v>5</v>
@@ -780,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
@@ -804,7 +871,7 @@
         <v>14</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -813,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
@@ -947,7 +1014,7 @@
         <v>28</v>
       </c>
       <c r="AK3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
@@ -986,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>25</v>
@@ -1138,10 +1205,10 @@
         <v>8</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>7</v>
@@ -1180,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="BB4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -1478,10 +1545,10 @@
         <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1733,7 @@
         <v>28</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>20</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -1848,7 +1915,7 @@
         <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2288,7 @@
         <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -2424,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
@@ -2770,7 +2837,7 @@
         <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM13" t="n">
         <v>15</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" t="n">
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>0.679</v>
+        <v>0.675</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2880,13 +2947,13 @@
         <v>21.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O14" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P14" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q14" t="n">
         <v>0.711</v>
@@ -2898,10 +2965,10 @@
         <v>30.1</v>
       </c>
       <c r="T14" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U14" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="V14" t="n">
         <v>14.6</v>
@@ -2916,28 +2983,28 @@
         <v>4.1</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2958,7 +3025,7 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>17</v>
@@ -2970,19 +3037,19 @@
         <v>27</v>
       </c>
       <c r="AR14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2994,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA14" t="n">
         <v>7</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -3116,19 +3183,19 @@
         <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI15" t="n">
         <v>16</v>
       </c>
       <c r="AJ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
@@ -3152,7 +3219,7 @@
         <v>30</v>
       </c>
       <c r="AR15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS15" t="n">
         <v>3</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3380,7 @@
         <v>19</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3750,7 @@
         <v>14</v>
       </c>
       <c r="AM18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3917,7 @@
         <v>22</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -3883,7 +3950,7 @@
         <v>10</v>
       </c>
       <c r="AS19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT19" t="n">
         <v>14</v>
@@ -3898,7 +3965,7 @@
         <v>6</v>
       </c>
       <c r="AX19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -4059,7 +4126,7 @@
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR20" t="n">
         <v>11</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -4435,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -4754,10 +4821,10 @@
         <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -4966,7 +5033,7 @@
         <v>27</v>
       </c>
       <c r="AP25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ25" t="n">
         <v>20</v>
@@ -4978,7 +5045,7 @@
         <v>22</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>14</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -5034,31 +5101,31 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" t="n">
         <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" t="n">
-        <v>0.407</v>
+        <v>0.413</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K26" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
         <v>23.4</v>
@@ -5076,16 +5143,16 @@
         <v>0.776</v>
       </c>
       <c r="R26" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S26" t="n">
         <v>30.1</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U26" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V26" t="n">
         <v>14.7</v>
@@ -5094,7 +5161,7 @@
         <v>6.6</v>
       </c>
       <c r="X26" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y26" t="n">
         <v>4.4</v>
@@ -5103,16 +5170,16 @@
         <v>18.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3.1</v>
+        <v>-2.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5133,7 +5200,7 @@
         <v>11</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>6</v>
@@ -5151,13 +5218,13 @@
         <v>24</v>
       </c>
       <c r="AQ26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT26" t="n">
         <v>23</v>
@@ -5175,13 +5242,13 @@
         <v>26</v>
       </c>
       <c r="AY26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ26" t="n">
         <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB26" t="n">
         <v>15</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -5327,7 +5394,7 @@
         <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP27" t="n">
         <v>12</v>
@@ -5360,7 +5427,7 @@
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
         <v>14</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -5580,34 +5647,34 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" t="n">
         <v>48</v>
       </c>
       <c r="G29" t="n">
-        <v>0.407</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I29" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J29" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L29" t="n">
         <v>6.9</v>
       </c>
       <c r="M29" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N29" t="n">
         <v>0.34</v>
@@ -5616,22 +5683,22 @@
         <v>17.5</v>
       </c>
       <c r="P29" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="R29" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S29" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T29" t="n">
         <v>40.1</v>
       </c>
       <c r="U29" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V29" t="n">
         <v>13.7</v>
@@ -5640,7 +5707,7 @@
         <v>7.3</v>
       </c>
       <c r="X29" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y29" t="n">
         <v>4.8</v>
@@ -5652,22 +5719,22 @@
         <v>20.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AE29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5676,22 +5743,22 @@
         <v>22</v>
       </c>
       <c r="AJ29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
         <v>15</v>
       </c>
       <c r="AM29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN29" t="n">
         <v>26</v>
       </c>
       <c r="AO29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5709,7 +5776,7 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5718,10 +5785,10 @@
         <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5730,7 +5797,7 @@
         <v>12</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
@@ -6034,13 +6101,13 @@
         <v>23</v>
       </c>
       <c r="AH31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI31" t="n">
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-16-2012-13</t>
+          <t>2013-04-16</t>
         </is>
       </c>
     </row>
